--- a/DOM_Banner/output/dept_banner/Arista Chand_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Arista Chand_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,355 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Sachin Chaudhary, S. Sam Weigt, Manuel L Ribiero Neto, Bryan S. Benn, Janelle Vu Pugashetti, Rebecca C. Keith, Arista Chand, Scott Oh, Fayez Kheir, Vijaya Sivalingam Ramalingam, Joshua J. Solomon, Richart W Harper, Joseph A. Lasky, Justin M. Oldham</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312113381</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Interstitial lung disease progression after genomic usual interstitial pneumonia testing</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5015736770", "https://openalex.org/A5070504333", "https://openalex.org/A5061165005", "https://openalex.org/A5074903705", "https://openalex.org/A5015989559", "https://openalex.org/A5042444062", "https://openalex.org/A5015339797", "https://openalex.org/A5053137144", "https://openalex.org/A5000816678", "https://openalex.org/A5005166792", "https://openalex.org/A5023917293", "https://openalex.org/A5029926958", "https://openalex.org/A5086357675", "https://openalex.org/A5009091055"
-), au_display_name = c("Sachin Chaudhary", "S. Sam Weigt", "Manuel L Ribiero Neto", "Bryan S. Benn", "Janelle Vu Pugashetti", "Rebecca C. Keith", "Arista Chand", "Scott Oh", "Fayez Kheir", "Vijaya Sivalingam Ramalingam", "Joshua J. Solomon", "Richart W Harper", "Joseph A. Lasky", "Justin M. Oldham"), au_orcid = c("https://orcid.org/0000-0001-5192-9336", NA, NA, "https://orcid.org/0000-0002-1136-8287", "https://orcid.org/0000-0002-8889-2757", NA, NA, "https://orcid.org/0000-0003-3993-4401", "https://orcid.org/0000-0002-4192-5080", 
-NA, "https://orcid.org/0000-0001-5488-4874", "https://orcid.org/0000-0001-8097-6465", NA, "https://orcid.org/0000-0003-4957-8869"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Pulmonary and Critical Care Medicine, University of Arizona.", "Division of Pulmonary and Critical Care Medicine, University of California at Los Angeles.", "Department of Pulmonary Medicine, Cleveland Clinic.", 
-"Division of Pulmonary and Critical Care Medicine, Medical College of Wisconsin, Milwaukee, WI, USA", "Division of Pulmonary, Critical Care and Sleep Medicine Medicine, University of California at Davis.", "Division of Pulmonary and Critical Care and Sleep Medicine, National Jewish Health, Denver, CO, USA", "Division of Pulmonary and Critical Care Medicine, University of Arizona.", "Division of Pulmonary and Critical Care Medicine, University of California at Los Angeles.", "Division of Pulmonary and Critical Care Medicine, Massachusetts General Hospital.", 
-"Division of Pulmonary and Critical Care Medicine, Medical College of Wisconsin, Milwaukee, WI, USA; Northeast Georgia Physicians Group", "Division of Pulmonary and Critical Care and Sleep Medicine, National Jewish Health, Denver, CO, USA", "Division of Pulmonary, Critical Care and Sleep Medicine Medicine, University of California at Davis.", "Division of Pulmonary and Critical Care Medicine, Tulane University.", "Division of Pulmonary and Critical Care Medicine, University of Michigan, Ann Arbor, MI, USA"
-), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I161318765", "https://openalex.org/I1316902750", "https://openalex.org/I204308271", "https://openalex.org/I84218800", "https://openalex.org/I3019586173", "https://openalex.org/I138006243", "https://openalex.org/I161318765", "https://openalex.org/I4210087915", "https://openalex.org/I4210117648", "https://openalex.org/I3019586173", "https://openalex.org/I84218800", "https://openalex.org/I114832834", "https://openalex.org/I27837315"
-), institution_display_name = c("University of Arizona", "University of California, Los Angeles", "Cleveland Clinic", "Medical College of Wisconsin", "University of California, Davis", "National Jewish Health", "University of Arizona", "University of California, Los Angeles", "Massachusetts General Hospital", "Northeast Georgia Medical Center", "National Jewish Health", "University of California, Davis", "Tulane University", "University of Michigan–Ann Arbor"), institution_ror = c("https://ror.org/03m2x1q45", 
-"https://ror.org/046rm7j60", "https://ror.org/03xjacd83", "https://ror.org/00qqv6244", "https://ror.org/05rrcem69", "https://ror.org/016z2bp30", "https://ror.org/03m2x1q45", "https://ror.org/046rm7j60", "https://ror.org/002pd6e78", "https://ror.org/02pd4fk17", "https://ror.org/016z2bp30", "https://ror.org/05rrcem69", "https://ror.org/04vmvtb21", "https://ror.org/00jmfr291"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", 
-"education", "healthcare", "education", "education", "healthcare", "education", "education", "healthcare", "healthcare", "healthcare", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I161318765, https://openalex.org/I2803209242", "https://openalex.org/I1316902750", "https://openalex.org/I204308271", "https://openalex.org/I2803209242, https://openalex.org/I84218800", "https://openalex.org/I3019586173", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I161318765, https://openalex.org/I2803209242", "https://openalex.org/I4210087915, https://openalex.org/I48633490", "https://openalex.org/I4210117648", "https://openalex.org/I3019586173", "https://openalex.org/I2803209242, https://openalex.org/I84218800", "https://openalex.org/I114832834", "https://openalex.org/I27837315"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A genomic classifier for usual interstitial pneumonia (gUIP) has been shown to predict histological UIP with high specificity, increasing diagnostic confidence for idiopathic pulmonary fibrosis (IPF). Whether those with positive gUIP classification exhibit a progressive, IPF-like phenotype remains unknown.A pooled, retrospective analysis of patients who underwent clinically indicated diagnostic bronchoscopy with gUIP testing at seven academic medical centres across the USA was performed. We assessed the association between gUIP classification and 18-month progression-free survival (PFS) using Cox proportional hazards regression. PFS was defined as the time from gUIP testing to death from any cause, lung transplant, ≥10% relative decline in forced vital capacity (FVC) or censoring at the time of last available FVC measure. Longitudinal change in FVC was then compared between gUIP classification groups using a joint regression model.Of 238 consecutive patients who underwent gUIP testing, 192 had available follow-up data and were included in the analysis, including 104 with positive gUIP classification and 88 with negative classification. In multivariable analysis, positive gUIP classification was associated with reduced PFS (hazard ratio 1.58, 95% CI 0.86-2.92; p=0.14), but this did not reach statistical significance. Mean annual change in FVC was -101.8 mL (95% CI -142.7- -60.9 mL; p&lt;0.001) for those with positive gUIP classification and -73.2 mL (95% CI -115.2- -31.1 mL; p&lt;0.001) for those with negative classification (difference 28.7 mL, 95% CI -83.2-25.9 mL; p=0.30).gUIP classification was not associated with differential rates of PFS or longitudinal FVC decline in a multicentre interstitial lung disease cohort undergoing bronchoscopy as part of the diagnostic evaluation.</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>The European respiratory journal</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The European respiratory journal</t>
+          <t>European Respiratory Society</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210207896</t>
+          <t>https://doi.org/10.1183/13993003.01245-2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>European Respiratory Society</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0903-1936</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36549706</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1183/13993003.01245-2022</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2201245</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2201245</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC10288658</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>c(funder = "https://openalex.org/F4320337338", funder_display_name = "National Heart, Lung, and Blood Institute", award_id = "K23HL138190")</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4312113381</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4312113381", doi = "https://doi.org/10.1183/13993003.01245-2022", pmid = "https://pubmed.ncbi.nlm.nih.gov/36549706")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1183/13993003.01245-2022</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1990285594", "https://openalex.org/W2062006349", "https://openalex.org/W2091915814", "https://openalex.org/W2095309945", "https://openalex.org/W2098305693", "https://openalex.org/W2106327380", "https://openalex.org/W2125013258", "https://openalex.org/W2134547880", "https://openalex.org/W2138871107", "https://openalex.org/W2152987559", "https://openalex.org/W2156807514", "https://openalex.org/W2157572334", "https://openalex.org/W2168666423", "https://openalex.org/W2197347269", 
-"https://openalex.org/W2341043325", "https://openalex.org/W2384315652", "https://openalex.org/W2474839550", "https://openalex.org/W2547362686", "https://openalex.org/W2598303606", "https://openalex.org/W2603167199", "https://openalex.org/W2661861904", "https://openalex.org/W2770589251", "https://openalex.org/W2789754687", "https://openalex.org/W2889197569", "https://openalex.org/W2890146673", "https://openalex.org/W2896189647", "https://openalex.org/W2930468941", "https://openalex.org/W2974960379", 
-"https://openalex.org/W2981171309", "https://openalex.org/W3015330439", "https://openalex.org/W3022283327", "https://openalex.org/W3044046114", "https://openalex.org/W3046088494", "https://openalex.org/W3122584685", "https://openalex.org/W3145332293", "https://openalex.org/W3208112152", "https://openalex.org/W4200201914", "https://openalex.org/W4225403198", "https://openalex.org/W4232017842")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3004604560", "https://openalex.org/W2765475901", "https://openalex.org/W2906177310", "https://openalex.org/W3119987641", "https://openalex.org/W2561326218", "https://openalex.org/W4367606959", "https://openalex.org/W1976007395", "https://openalex.org/W4323661983", "https://openalex.org/W4293148470", "https://openalex.org/W2515872884")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Arista Chand_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Arista Chand_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Pulmonary and Critical Care Medicine, University of Arizona.; Division of Pulmonary and Critical Care Medicine, University of California at Los Angeles.; Department of Pulmonary Medicine, Cleveland Clinic.; Division of Pulmonary and Critical Care Medicine, Medical College of Wisconsin, Milwaukee, WI, USA; Division of Pulmonary, Critical Care and Sleep Medicine Medicine, University of California at Davis.; Division of Pulmonary and Critical Care and Sleep Medicine, National Jewish Health, Denver, CO, USA; Division of Pulmonary and Critical Care Medicine, University of Arizona.; Division of Pulmonary and Critical Care Medicine, University of California at Los Angeles.; Division of Pulmonary and Critical Care Medicine, Massachusetts General Hospital.; Division of Pulmonary and Critical Care Medicine, Medical College of Wisconsin, Milwaukee, WI, USA; Northeast Georgia Physicians Group; Division of Pulmonary and Critical Care and Sleep Medicine, National Jewish Health, Denver, CO, USA; Division of Pulmonary, Critical Care and Sleep Medicine Medicine, University of California at Davis.; Division of Pulmonary and Critical Care Medicine, Tulane University.; Division of Pulmonary and Critical Care Medicine, University of Michigan, Ann Arbor, MI, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312113381</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Interstitial lung disease progression after genomic usual interstitial pneumonia testing</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-12-22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The European respiratory journal</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>European Respiratory Society</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1183/13993003.01245-2022</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36549706</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1183/13993003.01245-2022</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
